--- a/Factures_Excel/1696 - Photographie Benoit Blain Inc.xlsx
+++ b/Factures_Excel/1696 - Photographie Benoit Blain Inc.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161A62C-0A5F-41ED-92BC-324ABB802E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5650CEDD-FFD8-4910-BB15-036E401ECA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="2024-09-02 - 24-24489" sheetId="2" r:id="rId2"/>
+    <sheet name="2024-10-17 - 24-24558" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
     <definedName name="Liste_Activités">[1]Admin!$Z$11:$Z$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024-10-17 - 24-24558'!$A$1:$F$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Kelly Cochelin</t>
   </si>
@@ -119,22 +121,95 @@
   </si>
   <si>
     <t>Autres frais</t>
+  </si>
+  <si>
+    <t>Le 17 OCTOBRE 2024</t>
+  </si>
+  <si>
+    <t>Photographie Benoit Blain Inc.</t>
+  </si>
+  <si>
+    <t>Terrebonne, Québec, J6W 1T7</t>
+  </si>
+  <si>
+    <t>24-24558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test18</t>
+  </si>
+  <si>
+    <t>Frais de messager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="165" formatCode="##0.00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
+  <numFmts count="8">
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;_);\(#,##0.00\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="167" formatCode="##0.00"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$$-C0C]_);\(#,##0.00\ [$$-C0C]\)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +448,42 @@
       <i/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF625850"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF625850"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -462,18 +573,18 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -488,7 +599,7 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -503,7 +614,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -515,11 +626,8 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -537,7 +645,7 @@
     <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -552,10 +660,10 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -573,31 +681,31 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -615,115 +723,210 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="40" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="39" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -790,6 +993,61 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12183562" cy="3249150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16962</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="GCF_Entête" descr="Une image contenant texte, capture d’écran, Police, conception&#10;&#10;Description générée automatiquement">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6614F067-C43A-483D-B5B5-CC87677E86B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="12189912" cy="3240405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,16 +1670,16 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="89" customWidth="1"/>
-    <col min="2" max="2" width="120" style="89" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="89" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="95" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="96" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="96" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="120" style="81" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="81" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,548 +1929,548 @@
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="31"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="40" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43">
+      <c r="A66" s="25"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42">
         <v>54.35</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="43">
         <v>350</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="27"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50" t="s">
+      <c r="A69" s="48"/>
+      <c r="B69" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="50"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="51">
+      <c r="E69" s="50">
         <v>19022.5</v>
       </c>
-      <c r="F69" s="52"/>
+      <c r="F69" s="51"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="48"/>
+      <c r="B70" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="54"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="55">
+      <c r="E70" s="54">
         <v>0</v>
       </c>
-      <c r="F70" s="55"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="56" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="54"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="55">
+      <c r="E71" s="54">
         <v>0</v>
       </c>
-      <c r="F71" s="55"/>
+      <c r="F71" s="54"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="56" t="s">
+      <c r="A72" s="48"/>
+      <c r="B72" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="54"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="55">
+      <c r="E72" s="54">
         <v>0</v>
       </c>
-      <c r="F72" s="55"/>
+      <c r="F72" s="54"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="50"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="57">
+      <c r="E73" s="56">
         <v>19022.5</v>
       </c>
-      <c r="F73" s="57"/>
+      <c r="F73" s="56"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="54" t="s">
+      <c r="A74" s="48"/>
+      <c r="B74" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="58">
+      <c r="C74" s="57">
         <v>0.05</v>
       </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="59">
+      <c r="D74" s="53"/>
+      <c r="E74" s="58">
         <v>951.13</v>
       </c>
-      <c r="F74" s="59"/>
+      <c r="F74" s="58"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="61">
+      <c r="C75" s="60">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="54"/>
-      <c r="E75" s="62">
+      <c r="D75" s="53"/>
+      <c r="E75" s="61">
         <v>1897.49</v>
       </c>
-      <c r="F75" s="59"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="63"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="62"/>
       <c r="C76" s="9"/>
       <c r="D76" s="7"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="64"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="49"/>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="48"/>
+      <c r="B77" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="50"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="67">
+      <c r="C77" s="49"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="66">
         <v>21871.119999999999</v>
       </c>
-      <c r="F77" s="68"/>
+      <c r="F77" s="67"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="70"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="69"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="63" t="s">
+      <c r="A79" s="48"/>
+      <c r="B79" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="60"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="7"/>
       <c r="E79" s="8">
         <v>0</v>
       </c>
-      <c r="F79" s="64"/>
+      <c r="F79" s="63"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="72"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="75"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="77">
+      <c r="C81" s="88"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="74">
         <v>21871.119999999999</v>
       </c>
-      <c r="F81" s="78"/>
+      <c r="F81" s="75"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="80"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="84"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="78"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="87" t="s">
+      <c r="A85" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="87"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="89"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="81"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="89"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="81"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="89"/>
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="81"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="96"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="89"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2235,4 +2493,895 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B9E3D-1F5B-4E17-B102-7F9FE5718471}">
+  <sheetPr codeName="Feuil3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="101"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="107"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="109"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="107"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="107"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="109"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="107"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="107"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="107"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="107"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="107"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="107"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="107"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="107"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="107"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="107"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="107"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="115">
+        <v>11.4</v>
+      </c>
+      <c r="D65" s="116">
+        <v>350</v>
+      </c>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="117">
+        <v>1.5</v>
+      </c>
+      <c r="D66" s="118">
+        <v>200</v>
+      </c>
+      <c r="E66" s="119"/>
+      <c r="F66" s="119"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="117"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="50">
+        <v>4290</v>
+      </c>
+      <c r="F69" s="50"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="54">
+        <v>10</v>
+      </c>
+      <c r="F70" s="54"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="53"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="54">
+        <v>20</v>
+      </c>
+      <c r="F71" s="54"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="53"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="54">
+        <v>30</v>
+      </c>
+      <c r="F72" s="54"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="49"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="56">
+        <v>4350</v>
+      </c>
+      <c r="F73" s="56"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="57">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="58">
+        <v>217.5</v>
+      </c>
+      <c r="F74" s="58"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="60">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="53"/>
+      <c r="E75" s="61">
+        <v>433.91</v>
+      </c>
+      <c r="F75" s="58"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="49"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="66">
+        <v>5001.41</v>
+      </c>
+      <c r="F77" s="67"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="68"/>
+      <c r="F78" s="59"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="59"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="59"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="123"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="125">
+        <v>5001.41</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="77"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="126"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="62"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="127"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="127"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="127"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="128"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>